--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Il18-Il18r1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Il18-Il18r1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>Edge total expression derived specificity</t>
+  </si>
+  <si>
+    <t>ECs</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -452,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,31 +528,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>7.053021666666666</v>
+        <v>1.101236</v>
       </c>
       <c r="H2">
-        <v>21.159065</v>
+        <v>3.303708</v>
       </c>
       <c r="I2">
-        <v>0.08011112358180575</v>
+        <v>0.01694257912446582</v>
       </c>
       <c r="J2">
-        <v>0.08011112358180575</v>
+        <v>0.01694257912446582</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.5515783333333333</v>
+        <v>0.5515783333333334</v>
       </c>
       <c r="N2">
         <v>1.654735</v>
       </c>
       <c r="O2">
-        <v>0.06037095152961256</v>
+        <v>0.04647261835747274</v>
       </c>
       <c r="P2">
-        <v>0.06037095152961257</v>
+        <v>0.04647261835747273</v>
       </c>
       <c r="Q2">
-        <v>3.890293935863888</v>
+        <v>0.6074179174866666</v>
       </c>
       <c r="R2">
-        <v>35.01264542277499</v>
+        <v>5.46676125738</v>
       </c>
       <c r="S2">
-        <v>0.004836384758739997</v>
+        <v>0.0007873660136425844</v>
       </c>
       <c r="T2">
-        <v>0.004836384758739997</v>
+        <v>0.0007873660136425844</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,31 +590,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>7.053021666666666</v>
+        <v>1.101236</v>
       </c>
       <c r="H3">
-        <v>21.159065</v>
+        <v>3.303708</v>
       </c>
       <c r="I3">
-        <v>0.08011112358180575</v>
+        <v>0.01694257912446582</v>
       </c>
       <c r="J3">
-        <v>0.08011112358180575</v>
+        <v>0.01694257912446582</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -620,28 +623,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.1679506666666667</v>
+        <v>0.212307</v>
       </c>
       <c r="N3">
-        <v>0.503852</v>
+        <v>0.6369210000000001</v>
       </c>
       <c r="O3">
-        <v>0.01838241450751834</v>
+        <v>0.01788768990615409</v>
       </c>
       <c r="P3">
-        <v>0.01838241450751834</v>
+        <v>0.01788768990615409</v>
       </c>
       <c r="Q3">
-        <v>1.184559690931111</v>
+        <v>0.233800111452</v>
       </c>
       <c r="R3">
-        <v>10.66103721838</v>
+        <v>2.104201003068</v>
       </c>
       <c r="S3">
-        <v>0.00147263588034378</v>
+        <v>0.0003030636015889242</v>
       </c>
       <c r="T3">
-        <v>0.00147263588034378</v>
+        <v>0.0003030636015889242</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,31 +652,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>7.053021666666666</v>
+        <v>1.101236</v>
       </c>
       <c r="H4">
-        <v>21.159065</v>
+        <v>3.303708</v>
       </c>
       <c r="I4">
-        <v>0.08011112358180575</v>
+        <v>0.01694257912446582</v>
       </c>
       <c r="J4">
-        <v>0.08011112358180575</v>
+        <v>0.01694257912446582</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.082414666666667</v>
+        <v>11.04159266666667</v>
       </c>
       <c r="N4">
-        <v>24.247244</v>
+        <v>33.124778</v>
       </c>
       <c r="O4">
-        <v>0.8846305857135367</v>
+        <v>0.9302970966166841</v>
       </c>
       <c r="P4">
-        <v>0.8846305857135367</v>
+        <v>0.9302970966166839</v>
       </c>
       <c r="Q4">
-        <v>57.00544576298444</v>
+        <v>12.15939934186933</v>
       </c>
       <c r="R4">
-        <v>513.0490118668599</v>
+        <v>109.434594076824</v>
       </c>
       <c r="S4">
-        <v>0.07086875017634234</v>
+        <v>0.01576163216868899</v>
       </c>
       <c r="T4">
-        <v>0.07086875017634234</v>
+        <v>0.01576163216868899</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
         <v>25</v>
       </c>
-      <c r="C5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>7.053021666666666</v>
+        <v>1.101236</v>
       </c>
       <c r="H5">
-        <v>21.159065</v>
+        <v>3.303708</v>
       </c>
       <c r="I5">
-        <v>0.08011112358180575</v>
+        <v>0.01694257912446582</v>
       </c>
       <c r="J5">
-        <v>0.08011112358180575</v>
+        <v>0.01694257912446582</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.334542</v>
+        <v>0.06341066666666667</v>
       </c>
       <c r="N5">
-        <v>1.003626</v>
+        <v>0.190232</v>
       </c>
       <c r="O5">
-        <v>0.03661604824933233</v>
+        <v>0.005342595119689106</v>
       </c>
       <c r="P5">
-        <v>0.03661604824933234</v>
+        <v>0.005342595119689105</v>
       </c>
       <c r="Q5">
-        <v>2.359531974409999</v>
+        <v>0.06983010891733334</v>
       </c>
       <c r="R5">
-        <v>21.23578776969</v>
+        <v>0.628470980256</v>
       </c>
       <c r="S5">
-        <v>0.002933352766379624</v>
+        <v>9.05173405453176E-05</v>
       </c>
       <c r="T5">
-        <v>0.002933352766379625</v>
+        <v>9.05173405453176E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,13 +776,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -788,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>35.63076933333333</v>
+        <v>7.053021666666666</v>
       </c>
       <c r="H6">
-        <v>106.892308</v>
+        <v>21.159065</v>
       </c>
       <c r="I6">
-        <v>0.4047089460773642</v>
+        <v>0.108511143527883</v>
       </c>
       <c r="J6">
-        <v>0.4047089460773642</v>
+        <v>0.108511143527883</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.5515783333333333</v>
+        <v>0.5515783333333334</v>
       </c>
       <c r="N6">
         <v>1.654735</v>
       </c>
       <c r="O6">
-        <v>0.06037095152961256</v>
+        <v>0.04647261835747274</v>
       </c>
       <c r="P6">
-        <v>0.06037095152961257</v>
+        <v>0.04647261835747273</v>
       </c>
       <c r="Q6">
-        <v>19.65316036426444</v>
+        <v>3.890293935863889</v>
       </c>
       <c r="R6">
-        <v>176.87844327838</v>
+        <v>35.012645422775</v>
       </c>
       <c r="S6">
-        <v>0.02443266416723714</v>
+        <v>0.005042796960704255</v>
       </c>
       <c r="T6">
-        <v>0.02443266416723714</v>
+        <v>0.005042796960704254</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,13 +838,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -850,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>35.63076933333333</v>
+        <v>7.053021666666666</v>
       </c>
       <c r="H7">
-        <v>106.892308</v>
+        <v>21.159065</v>
       </c>
       <c r="I7">
-        <v>0.4047089460773642</v>
+        <v>0.108511143527883</v>
       </c>
       <c r="J7">
-        <v>0.4047089460773642</v>
+        <v>0.108511143527883</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -868,28 +871,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.1679506666666667</v>
+        <v>0.212307</v>
       </c>
       <c r="N7">
-        <v>0.503852</v>
+        <v>0.6369210000000001</v>
       </c>
       <c r="O7">
-        <v>0.01838241450751834</v>
+        <v>0.01788768990615409</v>
       </c>
       <c r="P7">
-        <v>0.01838241450751834</v>
+        <v>0.01788768990615409</v>
       </c>
       <c r="Q7">
-        <v>5.984211463379555</v>
+        <v>1.497405870985</v>
       </c>
       <c r="R7">
-        <v>53.85790317041599</v>
+        <v>13.476652838865</v>
       </c>
       <c r="S7">
-        <v>0.007439527601694996</v>
+        <v>0.001941013686788951</v>
       </c>
       <c r="T7">
-        <v>0.007439527601694996</v>
+        <v>0.00194101368678895</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,13 +900,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -912,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>35.63076933333333</v>
+        <v>7.053021666666666</v>
       </c>
       <c r="H8">
-        <v>106.892308</v>
+        <v>21.159065</v>
       </c>
       <c r="I8">
-        <v>0.4047089460773642</v>
+        <v>0.108511143527883</v>
       </c>
       <c r="J8">
-        <v>0.4047089460773642</v>
+        <v>0.108511143527883</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.082414666666667</v>
+        <v>11.04159266666667</v>
       </c>
       <c r="N8">
-        <v>24.247244</v>
+        <v>33.124778</v>
       </c>
       <c r="O8">
-        <v>0.8846305857135367</v>
+        <v>0.9302970966166841</v>
       </c>
       <c r="P8">
-        <v>0.8846305857135367</v>
+        <v>0.9302970966166839</v>
       </c>
       <c r="Q8">
-        <v>287.9826526443503</v>
+        <v>77.87659231250777</v>
       </c>
       <c r="R8">
-        <v>2591.843873799152</v>
+        <v>700.8893308125699</v>
       </c>
       <c r="S8">
-        <v>0.3580179120119268</v>
+        <v>0.1009476017745459</v>
       </c>
       <c r="T8">
-        <v>0.3580179120119268</v>
+        <v>0.1009476017745458</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,14 +962,14 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
         <v>25</v>
       </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>24</v>
-      </c>
       <c r="E9">
         <v>3</v>
       </c>
@@ -974,46 +977,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>35.63076933333333</v>
+        <v>7.053021666666666</v>
       </c>
       <c r="H9">
-        <v>106.892308</v>
+        <v>21.159065</v>
       </c>
       <c r="I9">
-        <v>0.4047089460773642</v>
+        <v>0.108511143527883</v>
       </c>
       <c r="J9">
-        <v>0.4047089460773642</v>
+        <v>0.108511143527883</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.334542</v>
+        <v>0.06341066666666667</v>
       </c>
       <c r="N9">
-        <v>1.003626</v>
+        <v>0.190232</v>
       </c>
       <c r="O9">
-        <v>0.03661604824933233</v>
+        <v>0.005342595119689106</v>
       </c>
       <c r="P9">
-        <v>0.03661604824933234</v>
+        <v>0.005342595119689105</v>
       </c>
       <c r="Q9">
-        <v>11.919988834312</v>
+        <v>0.4472368058977778</v>
       </c>
       <c r="R9">
-        <v>107.279899508808</v>
+        <v>4.02513125308</v>
       </c>
       <c r="S9">
-        <v>0.0148188422965052</v>
+        <v>0.0005797311058439519</v>
       </c>
       <c r="T9">
-        <v>0.01481884229650521</v>
+        <v>0.0005797311058439518</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,13 +1024,13 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1036,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.661325</v>
+        <v>37.05201233333333</v>
       </c>
       <c r="H10">
-        <v>10.983975</v>
+        <v>111.156037</v>
       </c>
       <c r="I10">
-        <v>0.04158683659436108</v>
+        <v>0.5700473383345471</v>
       </c>
       <c r="J10">
-        <v>0.04158683659436108</v>
+        <v>0.5700473383345471</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.5515783333333333</v>
+        <v>0.5515783333333334</v>
       </c>
       <c r="N10">
         <v>1.654735</v>
       </c>
       <c r="O10">
-        <v>0.06037095152961256</v>
+        <v>0.04647261835747274</v>
       </c>
       <c r="P10">
-        <v>0.06037095152961257</v>
+        <v>0.04647261835747273</v>
       </c>
       <c r="Q10">
-        <v>2.019507541291667</v>
+        <v>20.43708720946611</v>
       </c>
       <c r="R10">
-        <v>18.175567871625</v>
+        <v>183.933784885195</v>
       </c>
       <c r="S10">
-        <v>0.002510636896308091</v>
+        <v>0.02649159240011455</v>
       </c>
       <c r="T10">
-        <v>0.002510636896308091</v>
+        <v>0.02649159240011454</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1086,13 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1098,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.661325</v>
+        <v>37.05201233333333</v>
       </c>
       <c r="H11">
-        <v>10.983975</v>
+        <v>111.156037</v>
       </c>
       <c r="I11">
-        <v>0.04158683659436108</v>
+        <v>0.5700473383345471</v>
       </c>
       <c r="J11">
-        <v>0.04158683659436108</v>
+        <v>0.5700473383345471</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1116,28 +1119,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.1679506666666667</v>
+        <v>0.212307</v>
       </c>
       <c r="N11">
-        <v>0.503852</v>
+        <v>0.6369210000000001</v>
       </c>
       <c r="O11">
-        <v>0.01838241450751834</v>
+        <v>0.01788768990615409</v>
       </c>
       <c r="P11">
-        <v>0.01838241450751834</v>
+        <v>0.01788768990615409</v>
       </c>
       <c r="Q11">
-        <v>0.6149219746333333</v>
+        <v>7.866401582453</v>
       </c>
       <c r="R11">
-        <v>5.534297771699999</v>
+        <v>70.797614242077</v>
       </c>
       <c r="S11">
-        <v>0.0007644664683339776</v>
+        <v>0.01019683001995689</v>
       </c>
       <c r="T11">
-        <v>0.0007644664683339776</v>
+        <v>0.01019683001995688</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,13 +1148,13 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1160,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.661325</v>
+        <v>37.05201233333333</v>
       </c>
       <c r="H12">
-        <v>10.983975</v>
+        <v>111.156037</v>
       </c>
       <c r="I12">
-        <v>0.04158683659436108</v>
+        <v>0.5700473383345471</v>
       </c>
       <c r="J12">
-        <v>0.04158683659436108</v>
+        <v>0.5700473383345471</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>8.082414666666667</v>
+        <v>11.04159266666667</v>
       </c>
       <c r="N12">
-        <v>24.247244</v>
+        <v>33.124778</v>
       </c>
       <c r="O12">
-        <v>0.8846305857135367</v>
+        <v>0.9302970966166841</v>
       </c>
       <c r="P12">
-        <v>0.8846305857135367</v>
+        <v>0.9302970966166839</v>
       </c>
       <c r="Q12">
-        <v>29.59234687943333</v>
+        <v>409.1132276649762</v>
       </c>
       <c r="R12">
-        <v>266.3311219148999</v>
+        <v>3682.019048984786</v>
       </c>
       <c r="S12">
-        <v>0.03678898761444278</v>
+        <v>0.5303133837866978</v>
       </c>
       <c r="T12">
-        <v>0.03678898761444278</v>
+        <v>0.5303133837866977</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,14 +1210,14 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>24</v>
-      </c>
       <c r="E13">
         <v>3</v>
       </c>
@@ -1222,46 +1225,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.661325</v>
+        <v>37.05201233333333</v>
       </c>
       <c r="H13">
-        <v>10.983975</v>
+        <v>111.156037</v>
       </c>
       <c r="I13">
-        <v>0.04158683659436108</v>
+        <v>0.5700473383345471</v>
       </c>
       <c r="J13">
-        <v>0.04158683659436108</v>
+        <v>0.5700473383345471</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.334542</v>
+        <v>0.06341066666666667</v>
       </c>
       <c r="N13">
-        <v>1.003626</v>
+        <v>0.190232</v>
       </c>
       <c r="O13">
-        <v>0.03661604824933233</v>
+        <v>0.005342595119689106</v>
       </c>
       <c r="P13">
-        <v>0.03661604824933234</v>
+        <v>0.005342595119689105</v>
       </c>
       <c r="Q13">
-        <v>1.22486698815</v>
+        <v>2.349492803398222</v>
       </c>
       <c r="R13">
-        <v>11.02380289335</v>
+        <v>21.145435230584</v>
       </c>
       <c r="S13">
-        <v>0.001522745615276225</v>
+        <v>0.003045532127777916</v>
       </c>
       <c r="T13">
-        <v>0.001522745615276225</v>
+        <v>0.003045532127777916</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,31 +1272,31 @@
         <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>8.048222000000001</v>
+        <v>0.258594</v>
       </c>
       <c r="H14">
-        <v>24.144666</v>
+        <v>0.775782</v>
       </c>
       <c r="I14">
-        <v>0.09141501865831141</v>
+        <v>0.003978483545863116</v>
       </c>
       <c r="J14">
-        <v>0.09141501865831139</v>
+        <v>0.003978483545863116</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.5515783333333333</v>
+        <v>0.5515783333333334</v>
       </c>
       <c r="N14">
         <v>1.654735</v>
       </c>
       <c r="O14">
-        <v>0.06037095152961256</v>
+        <v>0.04647261835747274</v>
       </c>
       <c r="P14">
-        <v>0.06037095152961257</v>
+        <v>0.04647261835747273</v>
       </c>
       <c r="Q14">
-        <v>4.439224877056667</v>
+        <v>0.14263484753</v>
       </c>
       <c r="R14">
-        <v>39.95302389351</v>
+        <v>1.28371362777</v>
       </c>
       <c r="S14">
-        <v>0.005518811660499546</v>
+        <v>0.0001848905474683815</v>
       </c>
       <c r="T14">
-        <v>0.005518811660499546</v>
+        <v>0.0001848905474683814</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,31 +1334,31 @@
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>8.048222000000001</v>
+        <v>0.258594</v>
       </c>
       <c r="H15">
-        <v>24.144666</v>
+        <v>0.775782</v>
       </c>
       <c r="I15">
-        <v>0.09141501865831141</v>
+        <v>0.003978483545863116</v>
       </c>
       <c r="J15">
-        <v>0.09141501865831139</v>
+        <v>0.003978483545863116</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1367,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M15">
-        <v>0.1679506666666667</v>
+        <v>0.212307</v>
       </c>
       <c r="N15">
-        <v>0.503852</v>
+        <v>0.6369210000000001</v>
       </c>
       <c r="O15">
-        <v>0.01838241450751834</v>
+        <v>0.01788768990615409</v>
       </c>
       <c r="P15">
-        <v>0.01838241450751834</v>
+        <v>0.01788768990615409</v>
       </c>
       <c r="Q15">
-        <v>1.351704250381333</v>
+        <v>0.054901316358</v>
       </c>
       <c r="R15">
-        <v>12.165338253432</v>
+        <v>0.494111847222</v>
       </c>
       <c r="S15">
-        <v>0.001680428765189603</v>
+        <v>7.116587996513581E-05</v>
       </c>
       <c r="T15">
-        <v>0.001680428765189603</v>
+        <v>7.116587996513578E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,31 +1396,31 @@
         <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>8.048222000000001</v>
+        <v>0.258594</v>
       </c>
       <c r="H16">
-        <v>24.144666</v>
+        <v>0.775782</v>
       </c>
       <c r="I16">
-        <v>0.09141501865831141</v>
+        <v>0.003978483545863116</v>
       </c>
       <c r="J16">
-        <v>0.09141501865831139</v>
+        <v>0.003978483545863116</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>8.082414666666667</v>
+        <v>11.04159266666667</v>
       </c>
       <c r="N16">
-        <v>24.247244</v>
+        <v>33.124778</v>
       </c>
       <c r="O16">
-        <v>0.8846305857135367</v>
+        <v>0.9302970966166841</v>
       </c>
       <c r="P16">
-        <v>0.8846305857135367</v>
+        <v>0.9302970966166839</v>
       </c>
       <c r="Q16">
-        <v>65.04906753338935</v>
+        <v>2.855289614044</v>
       </c>
       <c r="R16">
-        <v>585.441607800504</v>
+        <v>25.697606526396</v>
       </c>
       <c r="S16">
-        <v>0.0808685214987159</v>
+        <v>0.003701171691653707</v>
       </c>
       <c r="T16">
-        <v>0.08086852149871589</v>
+        <v>0.003701171691653706</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,61 +1458,61 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>25</v>
       </c>
-      <c r="C17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" t="s">
-        <v>24</v>
-      </c>
       <c r="E17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>8.048222000000001</v>
+        <v>0.258594</v>
       </c>
       <c r="H17">
-        <v>24.144666</v>
+        <v>0.775782</v>
       </c>
       <c r="I17">
-        <v>0.09141501865831141</v>
+        <v>0.003978483545863116</v>
       </c>
       <c r="J17">
-        <v>0.09141501865831139</v>
+        <v>0.003978483545863116</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.334542</v>
+        <v>0.06341066666666667</v>
       </c>
       <c r="N17">
-        <v>1.003626</v>
+        <v>0.190232</v>
       </c>
       <c r="O17">
-        <v>0.03661604824933233</v>
+        <v>0.005342595119689106</v>
       </c>
       <c r="P17">
-        <v>0.03661604824933234</v>
+        <v>0.005342595119689105</v>
       </c>
       <c r="Q17">
-        <v>2.692468284324</v>
+        <v>0.016397617936</v>
       </c>
       <c r="R17">
-        <v>24.232214558916</v>
+        <v>0.147578561424</v>
       </c>
       <c r="S17">
-        <v>0.003347256733906346</v>
+        <v>2.125542677589169E-05</v>
       </c>
       <c r="T17">
-        <v>0.003347256733906346</v>
+        <v>2.125542677589169E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,13 +1520,13 @@
         <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18">
         <v>3</v>
@@ -1532,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>33.64714066666667</v>
+        <v>7.976870333333333</v>
       </c>
       <c r="H18">
-        <v>100.941422</v>
+        <v>23.930611</v>
       </c>
       <c r="I18">
-        <v>0.3821780750881575</v>
+        <v>0.1227246083383616</v>
       </c>
       <c r="J18">
-        <v>0.3821780750881575</v>
+        <v>0.1227246083383616</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1550,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.5515783333333333</v>
+        <v>0.5515783333333334</v>
       </c>
       <c r="N18">
         <v>1.654735</v>
       </c>
       <c r="O18">
-        <v>0.06037095152961256</v>
+        <v>0.04647261835747274</v>
       </c>
       <c r="P18">
-        <v>0.06037095152961257</v>
+        <v>0.04647261835747273</v>
       </c>
       <c r="Q18">
-        <v>18.55903377035222</v>
+        <v>4.399868843676112</v>
       </c>
       <c r="R18">
-        <v>167.03130393317</v>
+        <v>39.598819593085</v>
       </c>
       <c r="S18">
-        <v>0.02307245404682778</v>
+        <v>0.005703333886378998</v>
       </c>
       <c r="T18">
-        <v>0.02307245404682779</v>
+        <v>0.005703333886378996</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,13 +1582,13 @@
         <v>24</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E19">
         <v>3</v>
@@ -1594,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>33.64714066666667</v>
+        <v>7.976870333333333</v>
       </c>
       <c r="H19">
-        <v>100.941422</v>
+        <v>23.930611</v>
       </c>
       <c r="I19">
-        <v>0.3821780750881575</v>
+        <v>0.1227246083383616</v>
       </c>
       <c r="J19">
-        <v>0.3821780750881575</v>
+        <v>0.1227246083383616</v>
       </c>
       <c r="K19">
         <v>2</v>
@@ -1612,28 +1615,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>0.1679506666666667</v>
+        <v>0.212307</v>
       </c>
       <c r="N19">
-        <v>0.503852</v>
+        <v>0.6369210000000001</v>
       </c>
       <c r="O19">
-        <v>0.01838241450751834</v>
+        <v>0.01788768990615409</v>
       </c>
       <c r="P19">
-        <v>0.01838241450751834</v>
+        <v>0.01788768990615409</v>
       </c>
       <c r="Q19">
-        <v>5.651059706393777</v>
+        <v>1.693545409859</v>
       </c>
       <c r="R19">
-        <v>50.85953735754399</v>
+        <v>15.241908688731</v>
       </c>
       <c r="S19">
-        <v>0.007025355791955978</v>
+        <v>0.002195259737810826</v>
       </c>
       <c r="T19">
-        <v>0.007025355791955978</v>
+        <v>0.002195259737810825</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,13 +1644,13 @@
         <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E20">
         <v>3</v>
@@ -1656,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>33.64714066666667</v>
+        <v>7.976870333333333</v>
       </c>
       <c r="H20">
-        <v>100.941422</v>
+        <v>23.930611</v>
       </c>
       <c r="I20">
-        <v>0.3821780750881575</v>
+        <v>0.1227246083383616</v>
       </c>
       <c r="J20">
-        <v>0.3821780750881575</v>
+        <v>0.1227246083383616</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>8.082414666666667</v>
+        <v>11.04159266666667</v>
       </c>
       <c r="N20">
-        <v>24.247244</v>
+        <v>33.124778</v>
       </c>
       <c r="O20">
-        <v>0.8846305857135367</v>
+        <v>0.9302970966166841</v>
       </c>
       <c r="P20">
-        <v>0.8846305857135367</v>
+        <v>0.9302970966166839</v>
       </c>
       <c r="Q20">
-        <v>271.9501432156631</v>
+        <v>88.07735297548422</v>
       </c>
       <c r="R20">
-        <v>2447.551288940967</v>
+        <v>792.696176779358</v>
       </c>
       <c r="S20">
-        <v>0.3380864144121088</v>
+        <v>0.1141703468205975</v>
       </c>
       <c r="T20">
-        <v>0.3380864144121088</v>
+        <v>0.1141703468205975</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,61 +1706,309 @@
         <v>24</v>
       </c>
       <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
         <v>25</v>
       </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>7.976870333333333</v>
+      </c>
+      <c r="H21">
+        <v>23.930611</v>
+      </c>
+      <c r="I21">
+        <v>0.1227246083383616</v>
+      </c>
+      <c r="J21">
+        <v>0.1227246083383616</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M21">
+        <v>0.06341066666666667</v>
+      </c>
+      <c r="N21">
+        <v>0.190232</v>
+      </c>
+      <c r="O21">
+        <v>0.005342595119689106</v>
+      </c>
+      <c r="P21">
+        <v>0.005342595119689105</v>
+      </c>
+      <c r="Q21">
+        <v>0.5058186657502223</v>
+      </c>
+      <c r="R21">
+        <v>4.552367991752</v>
+      </c>
+      <c r="S21">
+        <v>0.0006556678935742879</v>
+      </c>
+      <c r="T21">
+        <v>0.0006556678935742878</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>11.556398</v>
+      </c>
+      <c r="H22">
+        <v>34.669194</v>
+      </c>
+      <c r="I22">
+        <v>0.1777958471288793</v>
+      </c>
+      <c r="J22">
+        <v>0.1777958471288793</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0.5515783333333334</v>
+      </c>
+      <c r="N22">
+        <v>1.654735</v>
+      </c>
+      <c r="O22">
+        <v>0.04647261835747274</v>
+      </c>
+      <c r="P22">
+        <v>0.04647261835747273</v>
+      </c>
+      <c r="Q22">
+        <v>6.374258748176667</v>
+      </c>
+      <c r="R22">
+        <v>57.36832873359</v>
+      </c>
+      <c r="S22">
+        <v>0.008262638549163974</v>
+      </c>
+      <c r="T22">
+        <v>0.00826263854916397</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>11.556398</v>
+      </c>
+      <c r="H23">
+        <v>34.669194</v>
+      </c>
+      <c r="I23">
+        <v>0.1777958471288793</v>
+      </c>
+      <c r="J23">
+        <v>0.1777958471288793</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M23">
+        <v>0.212307</v>
+      </c>
+      <c r="N23">
+        <v>0.6369210000000001</v>
+      </c>
+      <c r="O23">
+        <v>0.01788768990615409</v>
+      </c>
+      <c r="P23">
+        <v>0.01788768990615409</v>
+      </c>
+      <c r="Q23">
+        <v>2.453504190186</v>
+      </c>
+      <c r="R23">
+        <v>22.081537711674</v>
+      </c>
+      <c r="S23">
+        <v>0.003180356980043371</v>
+      </c>
+      <c r="T23">
+        <v>0.003180356980043369</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="E21">
-        <v>3</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>33.64714066666667</v>
-      </c>
-      <c r="H21">
-        <v>100.941422</v>
-      </c>
-      <c r="I21">
-        <v>0.3821780750881575</v>
-      </c>
-      <c r="J21">
-        <v>0.3821780750881575</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>0.334542</v>
-      </c>
-      <c r="N21">
-        <v>1.003626</v>
-      </c>
-      <c r="O21">
-        <v>0.03661604824933233</v>
-      </c>
-      <c r="P21">
-        <v>0.03661604824933234</v>
-      </c>
-      <c r="Q21">
-        <v>11.256381732908</v>
-      </c>
-      <c r="R21">
-        <v>101.307435596172</v>
-      </c>
-      <c r="S21">
-        <v>0.01399385083726493</v>
-      </c>
-      <c r="T21">
-        <v>0.01399385083726493</v>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>11.556398</v>
+      </c>
+      <c r="H24">
+        <v>34.669194</v>
+      </c>
+      <c r="I24">
+        <v>0.1777958471288793</v>
+      </c>
+      <c r="J24">
+        <v>0.1777958471288793</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>11.04159266666667</v>
+      </c>
+      <c r="N24">
+        <v>33.124778</v>
+      </c>
+      <c r="O24">
+        <v>0.9302970966166841</v>
+      </c>
+      <c r="P24">
+        <v>0.9302970966166839</v>
+      </c>
+      <c r="Q24">
+        <v>127.6010394098813</v>
+      </c>
+      <c r="R24">
+        <v>1148.409354688932</v>
+      </c>
+      <c r="S24">
+        <v>0.1654029603745002</v>
+      </c>
+      <c r="T24">
+        <v>0.1654029603745002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>11.556398</v>
+      </c>
+      <c r="H25">
+        <v>34.669194</v>
+      </c>
+      <c r="I25">
+        <v>0.1777958471288793</v>
+      </c>
+      <c r="J25">
+        <v>0.1777958471288793</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M25">
+        <v>0.06341066666666667</v>
+      </c>
+      <c r="N25">
+        <v>0.190232</v>
+      </c>
+      <c r="O25">
+        <v>0.005342595119689106</v>
+      </c>
+      <c r="P25">
+        <v>0.005342595119689105</v>
+      </c>
+      <c r="Q25">
+        <v>0.7327989014453333</v>
+      </c>
+      <c r="R25">
+        <v>6.595190113008</v>
+      </c>
+      <c r="S25">
+        <v>0.000949891225171741</v>
+      </c>
+      <c r="T25">
+        <v>0.0009498912251717408</v>
       </c>
     </row>
   </sheetData>
